--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304895.2212741796</v>
+        <v>302638.1993650965</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836236</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>253.5959385775743</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>218.747847299399</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>67.27045902789108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>280.463634722535</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>107.5731929193031</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>126.7632886126198</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>34.10050473850166</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>172.2648209834061</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
-        <v>96.618216133684</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1297,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>84.4526210585752</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.1464389795494</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292629</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851119</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734026365</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>47.41254713315477</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>204.8291799908554</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>98.12640288586348</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>161.7608759940978</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1898,7 +1898,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,13 +2002,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>126.0955237083907</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.25588147840223</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>159.6485136801238</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2248,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>171.6645138565009</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2296,7 +2296,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.48923120238931</v>
+        <v>92.09843453981388</v>
       </c>
     </row>
     <row r="26">
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>18.26879610203984</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>17.157944215243</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>144.7268717888058</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>282.6548612319559</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>56.00855464855957</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>171.754906320834</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935316</v>
+        <v>178.7757248935317</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102221</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345255</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164174</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430363</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877635</v>
+        <v>131.2065893217301</v>
       </c>
       <c r="U37" t="n">
-        <v>163.9027871311071</v>
+        <v>285.1555829172073</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354223</v>
+        <v>251.0813880354224</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481853</v>
+        <v>285.4667430481854</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006314</v>
+        <v>224.6534001006316</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636891</v>
+        <v>217.5283980636892</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C43" t="n">
         <v>120.2716844800353</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F43" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404347</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145481</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U43" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X43" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y43" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="44">
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T46" t="n">
         <v>172.5738126575766</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1251.855211652197</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C2" t="n">
-        <v>882.8926947117852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D2" t="n">
-        <v>882.8926947117852</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X2" t="n">
-        <v>1638.455051716319</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="Y2" t="n">
-        <v>1638.455051716319</v>
+        <v>1816.955293888756</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,10 +4407,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>167.5494648672615</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>325.2978374347314</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W4" t="n">
-        <v>325.2978374347314</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X4" t="n">
-        <v>325.2978374347314</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>325.2978374347314</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1735.606436744359</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C5" t="n">
-        <v>1735.606436744359</v>
+        <v>1294.457619255166</v>
       </c>
       <c r="D5" t="n">
-        <v>1377.340738137608</v>
+        <v>1294.457619255166</v>
       </c>
       <c r="E5" t="n">
-        <v>991.5524855393639</v>
+        <v>908.6693666569213</v>
       </c>
       <c r="F5" t="n">
-        <v>580.5665807497564</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>162.6027726479433</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>162.6027726479433</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.74576872017</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="X5" t="n">
-        <v>2125.74576872017</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1735.606436744359</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4635,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>181.9867076916976</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1363086691491</v>
+        <v>181.9867076916976</v>
       </c>
       <c r="D7" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>246.1363086691491</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286582</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>471.4038777286582</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>471.4038777286582</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>181.9867076916976</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>181.9867076916976</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>181.9867076916976</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>1937.591755944066</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>1568.629239003654</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1210.363540396904</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2599.55493330743</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2380.920266279493</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2127.158480917584</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2127.158480917584</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.158480917584</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>1937.591755944066</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>1937.591755944066</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598709</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="D10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="E10" t="n">
-        <v>580.2158906240411</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="F10" t="n">
-        <v>433.3259431261307</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>268.5993065148977</v>
       </c>
     </row>
     <row r="11">
@@ -5018,46 +5018,46 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
         <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551623</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001588</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074192</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972645</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L11" t="n">
-        <v>1237.706702364135</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2216.257005193962</v>
+        <v>2337.214217867998</v>
       </c>
       <c r="N11" t="n">
-        <v>3196.009277420607</v>
+        <v>3316.966490094645</v>
       </c>
       <c r="O11" t="n">
-        <v>4075.973927750061</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
         <v>4719.034655862919</v>
@@ -5069,7 +5069,7 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
         <v>4208.252829604874</v>
@@ -5094,52 +5094,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549486</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.433320576371</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468566</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193577</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.200663232022</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454337</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.00003200879</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426844</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902946</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549545</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1023.336921276364</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="C13" t="n">
-        <v>854.4007383484569</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="D13" t="n">
-        <v>704.2840989361212</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>485.9938459101016</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305367</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953297</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442056</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927011</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892249</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598113</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518526</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
-        <v>1878.733169952185</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104699</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104699</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104699</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1908.452004354038</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1908.452004354038</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.767516148151</v>
+        <v>957.0594807773022</v>
       </c>
       <c r="W13" t="n">
-        <v>1653.767516148151</v>
+        <v>667.6423107403414</v>
       </c>
       <c r="X13" t="n">
-        <v>1425.777965250134</v>
+        <v>667.6423107403414</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.985386106604</v>
+        <v>667.6423107403414</v>
       </c>
     </row>
     <row r="14">
@@ -5279,16 +5279,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
         <v>4075.973927750058</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>561.5038042865474</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="C16" t="n">
-        <v>392.5676213586405</v>
+        <v>492.7083461157126</v>
       </c>
       <c r="D16" t="n">
-        <v>242.4509819463048</v>
+        <v>342.5917067033769</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>194.6786131209838</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839442</v>
@@ -5434,7 +5434,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
         <v>344.6708498442064</v>
@@ -5458,28 +5458,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1703.118184625769</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1481.351569195295</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1481.351569195295</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.351569195295</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.934399158335</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X16" t="n">
-        <v>963.9448482603173</v>
+        <v>895.1493900894825</v>
       </c>
       <c r="Y16" t="n">
-        <v>743.1522691167871</v>
+        <v>674.3568109459524</v>
       </c>
     </row>
     <row r="17">
@@ -5501,10 +5501,10 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551631</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>243.4741280307873</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="C19" t="n">
-        <v>243.4741280307873</v>
+        <v>222.9302503154558</v>
       </c>
       <c r="D19" t="n">
-        <v>243.4741280307873</v>
+        <v>222.9302503154558</v>
       </c>
       <c r="E19" t="n">
         <v>95.56103444839442</v>
@@ -5671,10 +5671,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,37 +5686,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1938.913282793186</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1747.227398620013</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1525.460783189539</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1236.357916315182</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>981.6734281092953</v>
+        <v>909.2731541783405</v>
       </c>
       <c r="W19" t="n">
-        <v>692.2562580723347</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X19" t="n">
-        <v>464.2667071743174</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y19" t="n">
-        <v>243.4741280307873</v>
+        <v>391.8664332433627</v>
       </c>
     </row>
     <row r="20">
@@ -5729,19 +5729,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,16 +5753,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>750.1800661608916</v>
+        <v>786.6724891157196</v>
       </c>
       <c r="L20" t="n">
-        <v>1614.698881814246</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M20" t="n">
-        <v>2593.249184644075</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870722</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5777,25 +5777,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>410.153818571586</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>410.153818571586</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>410.153818571586</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.153818571586</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736755</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5917,13 +5917,13 @@
         <v>661.2306482927025</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5935,25 +5935,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1693.114510017281</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1471.347894586807</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1182.245027712451</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>927.5605395065639</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>638.1433694696034</v>
+        <v>874.5404723472668</v>
       </c>
       <c r="X22" t="n">
-        <v>410.153818571586</v>
+        <v>646.5509214492495</v>
       </c>
       <c r="Y22" t="n">
-        <v>410.153818571586</v>
+        <v>425.7583423057193</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193956</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
         <v>4075.973927750058</v>
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6072,7 +6072,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6084,22 +6084,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.6966825353826</v>
+        <v>388.668168728447</v>
       </c>
       <c r="C25" t="n">
-        <v>653.6966825353826</v>
+        <v>388.668168728447</v>
       </c>
       <c r="D25" t="n">
-        <v>653.6966825353826</v>
+        <v>388.668168728447</v>
       </c>
       <c r="E25" t="n">
-        <v>653.6966825353826</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F25" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6160,7 +6160,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
@@ -6172,25 +6172,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>653.6966825353826</v>
+        <v>388.668168728447</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6254,22 +6254,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
@@ -6303,10 +6303,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
         <v>794.2006632320242</v>
@@ -6321,22 +6321,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6345,10 +6345,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>192.8867116300491</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="C28" t="n">
-        <v>192.8867116300491</v>
+        <v>260.9043113423045</v>
       </c>
       <c r="D28" t="n">
-        <v>192.8867116300491</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E28" t="n">
-        <v>192.8867116300491</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,7 +6388,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783404</v>
+        <v>999.1036114208125</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413798</v>
+        <v>709.686441383852</v>
       </c>
       <c r="X28" t="n">
-        <v>391.8664332433625</v>
+        <v>481.6968904858346</v>
       </c>
       <c r="Y28" t="n">
-        <v>374.5351764602888</v>
+        <v>260.9043113423045</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6464,25 +6464,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>391.8664332433623</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8664332433623</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7497938310265</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7497938310265</v>
+        <v>95.56103444839437</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7497938310265</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,7 +6622,7 @@
         <v>140.6836668953299</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6634,37 +6634,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258583</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1163.957642384227</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V31" t="n">
-        <v>909.2731541783403</v>
+        <v>1002.696517454809</v>
       </c>
       <c r="W31" t="n">
-        <v>619.8559841413796</v>
+        <v>713.2793474178487</v>
       </c>
       <c r="X31" t="n">
-        <v>391.8664332433623</v>
+        <v>485.2897965198314</v>
       </c>
       <c r="Y31" t="n">
-        <v>391.8664332433623</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1682.725100522032</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6731,19 +6731,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>300.048425655595</v>
+        <v>507.4794957532406</v>
       </c>
       <c r="C34" t="n">
-        <v>300.048425655595</v>
+        <v>507.4794957532406</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>507.4794957532406</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>360.58954825533</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6871,7 +6871,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1279.570704894105</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>1024.886216688219</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>735.4690466512579</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>507.4794957532406</v>
       </c>
       <c r="Y34" t="n">
-        <v>481.6968904858347</v>
+        <v>507.4794957532406</v>
       </c>
     </row>
     <row r="35">
@@ -6914,43 +6914,43 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
-        <v>3697.97444730184</v>
+        <v>4010.914672075805</v>
       </c>
       <c r="P35" t="n">
         <v>4405.689038432984</v>
@@ -6968,13 +6968,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6990,22 +6990,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
@@ -7014,19 +7014,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,22 +7044,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>409.2533158067253</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>241.3840574125616</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>241.3840574125616</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125616</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308517</v>
+        <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152498</v>
+        <v>346.7622353152494</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992677</v>
+        <v>664.3677264992671</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834338</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275725</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.39982593166</v>
+        <v>1652.399825931658</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100841</v>
+        <v>1886.053019100839</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988877</v>
+        <v>1964.709007988875</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988877</v>
+        <v>1875.945475280146</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988877</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1744.009317092147</v>
+        <v>1552.794607234928</v>
       </c>
       <c r="U37" t="n">
-        <v>1578.450946252644</v>
+        <v>1264.758664894314</v>
       </c>
       <c r="V37" t="n">
-        <v>1324.8333825805</v>
+        <v>1011.14110122217</v>
       </c>
       <c r="W37" t="n">
-        <v>1036.483137077283</v>
+        <v>722.7908557189526</v>
       </c>
       <c r="X37" t="n">
-        <v>809.5605107130087</v>
+        <v>495.8682293546782</v>
       </c>
       <c r="Y37" t="n">
-        <v>589.8348561032218</v>
+        <v>276.1425747448911</v>
       </c>
     </row>
     <row r="38">
@@ -7151,49 +7151,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416718</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160453</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819763</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,13 +7351,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7400,7 +7400,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7409,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7464,34 +7464,34 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.200663232024</v>
@@ -7500,28 +7500,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215045</v>
+        <v>788.5151678215055</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416709</v>
+        <v>667.0286178416719</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774085</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430886</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932515</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G43" t="n">
         <v>244.2046325160447</v>
@@ -7570,7 +7570,7 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499223</v>
@@ -7600,19 +7600,19 @@
         <v>1967.452490122057</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195773</v>
+        <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937959</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036709</v>
+        <v>922.713999703672</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7649,16 +7649,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037953</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
@@ -7728,49 +7728,49 @@
         <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416716</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F46" t="n">
         <v>364.4578361932524</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7843,13 +7843,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W46" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X46" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>170.1140909277408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>258.6211785616945</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.496531173600829e-12</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8927,19 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9401,10 +9401,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>133.2530576400255</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9650,7 +9650,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10112,19 +10112,19 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>295.4822118493981</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10598,10 +10598,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>67.53663776704263</v>
       </c>
       <c r="P35" t="n">
-        <v>316.1012371454192</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11057,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11306,10 +11306,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>288.0478149561031</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983822</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004751</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>172.1364021430144</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>47.30846333297258</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>47.29464513706776</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>28.00814933734407</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23890,13 +23890,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>20.33843893817843</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>71.6762711916451</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>20.18346650181351</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24136,10 +24136,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.10451147494103</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>199.0954221497055</v>
+        <v>126.4862188122809</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>130.3466769161725</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>201.4267091368518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>21.29893647022246</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3.556976973656958</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>92.60691836965279</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.4569318847789</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102222</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298066</v>
+        <v>147.5592177298068</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581634</v>
+        <v>145.3777073581636</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345257</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706225</v>
+        <v>164.9695529706226</v>
       </c>
       <c r="H37" t="n">
-        <v>143.698759625915</v>
+        <v>143.6987596259152</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143235</v>
+        <v>95.29616512143251</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164158</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430362</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>87.28610466603345</v>
       </c>
       <c r="U37" t="n">
-        <v>121.2527957861</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1069622.313640016</v>
+        <v>1069622.313640015</v>
       </c>
     </row>
     <row r="6">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1069622.313640016</v>
+        <v>1069622.313640015</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1105235.923459686</v>
+        <v>1105235.923459685</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1105235.923459685</v>
+        <v>1105235.923459686</v>
       </c>
     </row>
     <row r="16">
@@ -26314,16 +26314,16 @@
         <v>348942.7521923206</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="F2" t="n">
-        <v>337519.5188539356</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="G2" t="n">
         <v>337519.5188539356</v>
@@ -26332,28 +26332,28 @@
         <v>337519.5188539358</v>
       </c>
       <c r="I2" t="n">
-        <v>337519.5188539355</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="J2" t="n">
+        <v>337519.5188539357</v>
+      </c>
+      <c r="K2" t="n">
+        <v>337519.5188539356</v>
+      </c>
+      <c r="L2" t="n">
         <v>337519.5188539359</v>
       </c>
-      <c r="K2" t="n">
-        <v>337519.5188539357</v>
-      </c>
-      <c r="L2" t="n">
-        <v>337519.5188539356</v>
-      </c>
       <c r="M2" t="n">
-        <v>337776.3749589496</v>
+        <v>337776.3749589497</v>
       </c>
       <c r="N2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="O2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923204</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934051</v>
+        <v>727377.4139934063</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857255e-09</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696694</v>
+        <v>130487.3190696692</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414944</v>
+        <v>36735.10506414958</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,19 +26418,19 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231919008</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
@@ -26439,7 +26439,7 @@
         <v>18148.49231918993</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
@@ -26448,16 +26448,16 @@
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811464</v>
+        <v>18496.05294811459</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371361</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955464</v>
+        <v>96472.31657955462</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26522,40 +26522,40 @@
         <v>-507232.8919427613</v>
       </c>
       <c r="C6" t="n">
-        <v>82734.98727178309</v>
+        <v>82734.98727178294</v>
       </c>
       <c r="D6" t="n">
-        <v>82734.98727178309</v>
+        <v>82734.98727178312</v>
       </c>
       <c r="E6" t="n">
-        <v>-504389.905712373</v>
+        <v>-504457.1012026002</v>
       </c>
       <c r="F6" t="n">
-        <v>222987.5082810302</v>
+        <v>222920.3127908062</v>
       </c>
       <c r="G6" t="n">
-        <v>222987.508281032</v>
+        <v>222920.3127908062</v>
       </c>
       <c r="H6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.3127908063</v>
       </c>
       <c r="I6" t="n">
-        <v>222987.5082810319</v>
+        <v>222920.3127908063</v>
       </c>
       <c r="J6" t="n">
-        <v>46564.28908843936</v>
+        <v>46497.09359821342</v>
       </c>
       <c r="K6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.3127908062</v>
       </c>
       <c r="L6" t="n">
-        <v>222987.508281032</v>
+        <v>222920.3127908065</v>
       </c>
       <c r="M6" t="n">
-        <v>92320.68636161089</v>
+        <v>92255.00178965037</v>
       </c>
       <c r="N6" t="n">
-        <v>178269.3228166599</v>
+        <v>178269.3228166598</v>
       </c>
       <c r="O6" t="n">
         <v>215004.4278808094</v>
@@ -26698,7 +26698,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.422095482516306e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26738,13 +26738,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593296</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018679</v>
+        <v>45.91888133018698</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762095</v>
+        <v>712.0330363762113</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>129.1379030859063</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9832533790701</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>67.69516276444715</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.1333486527698</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27613,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>126.4124110191764</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>44.35812332555817</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>21.85218440559251</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>111.3205432844296</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>209.6655490888556</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>77.79749667528753</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>82.85718120047571</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,7 +28065,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>7.135435262428359</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3.879119248040297e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="C37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="D37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="E37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="F37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="G37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="H37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="I37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="K37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="L37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="N37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="O37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="P37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="R37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="S37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="T37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="U37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="V37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="W37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="X37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.05625528840575</v>
+        <v>1.056255288405581</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-4.050093593832571e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859253</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681588</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844658</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974796</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953981</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003798</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623179</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574979</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095008</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099044</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.99498197464</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678168</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563563</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806931</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451116</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.350480948934527</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502561</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798527</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752241</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026433</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353149</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138785</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233463</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837912</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970239</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002918</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987481</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905538</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238307</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898478</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462212</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430534</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311876</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742007</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.9375967297387</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702019</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098814</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316426</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883109</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023085995</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802164</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895877</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712197</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553029</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112278</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780292</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33515,10 +33515,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307151</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687118</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865553992</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7042053200715</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230577</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.648759824894</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>888.853182150963</v>
+        <v>766.6741794499135</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193705</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222421</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597665</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609559</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340044</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013279</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.306104600458</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525794</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859615</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127265</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306594</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443191</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701975</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934832</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675395</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226392</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451099</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789332</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,19 +35647,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P14" t="n">
         <v>398.7619862193719</v>
@@ -36121,10 +36121,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>470.444344195426</v>
+        <v>507.3053774831311</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
         <v>988.4346493230593</v>
@@ -36133,7 +36133,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36361,7 +36361,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
         <v>988.4346493230593</v>
@@ -36370,7 +36370,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36832,19 +36832,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>751.0723262417303</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,10 +37163,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
         <v>988.4346493230593</v>
@@ -37318,10 +37318,10 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>575.5896386552618</v>
       </c>
       <c r="P35" t="n">
-        <v>714.8632233647911</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
         <v>250.7943048037195</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.634671901472</v>
+        <v>46.6346719014718</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327253</v>
+        <v>207.1039148327251</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586039</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818896</v>
+        <v>348.6896346818894</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559458</v>
+        <v>345.9132014559457</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110455</v>
+        <v>303.4093855110453</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335162</v>
+        <v>236.013326433516</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629941</v>
+        <v>79.45049382629924</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -38017,7 +38017,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
         <v>455.5901143923322</v>
@@ -38026,10 +38026,10 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
